--- a/trend_results/Lakes/LakeHorowhenuaatBuoy_d1d3f57b5b.xlsx
+++ b/trend_results/Lakes/LakeHorowhenuaatBuoy_d1d3f57b5b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="51">
   <si>
     <t>site name</t>
   </si>
@@ -112,40 +112,34 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>&lt; 5 Non-censored values</t>
   </si>
   <si>
     <t>Lake</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
     <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -624,37 +618,37 @@
         <v>32</v>
       </c>
       <c r="F2">
-        <v>0.992930649717341</v>
+        <v>0.9742379586059839</v>
       </c>
       <c r="G2">
-        <v>0.075</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K2">
-        <v>-4.18080124869927</v>
+        <v>-4.81996748199202</v>
       </c>
       <c r="L2">
-        <v>-7.87405647106795</v>
+        <v>-10.3587104024324</v>
       </c>
       <c r="M2">
-        <v>-0.919905535933067</v>
+        <v>-0.584291185909522</v>
       </c>
       <c r="N2">
-        <v>-23.2266736038848</v>
+        <v>-30.1247967624501</v>
       </c>
       <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
         <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
       </c>
       <c r="Q2">
         <v>1790680.36207</v>
@@ -663,19 +657,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
         <v>44</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>45</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>46</v>
-      </c>
-      <c r="V2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -692,40 +686,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>0.848975521731215</v>
+        <v>0.543980671003122</v>
       </c>
       <c r="G3">
-        <v>0.0869565217391304</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H3">
-        <v>0.869565217391304</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="K3">
-        <v>0.0548423423423423</v>
+        <v>0.0093414322250639</v>
       </c>
       <c r="L3">
-        <v>-0.0579803401853671</v>
+        <v>-0.141225232572346</v>
       </c>
       <c r="M3">
-        <v>0.190082078823016</v>
+        <v>0.179457739377415</v>
       </c>
       <c r="N3">
-        <v>6.30371751061406</v>
+        <v>1.11207526488857</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q3">
         <v>1790680.36207</v>
@@ -734,19 +728,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
         <v>44</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>45</v>
       </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>47</v>
-      </c>
-      <c r="W3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -763,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>0.970035050766538</v>
+        <v>0.8930551458943849</v>
       </c>
       <c r="G4">
-        <v>0.6</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="H4">
-        <v>0.275</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -784,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>-0.553326627641084</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -793,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4">
         <v>1790680.36207</v>
@@ -805,19 +799,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
         <v>44</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>45</v>
       </c>
-      <c r="U4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" t="s">
-        <v>47</v>
-      </c>
       <c r="W4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -834,40 +828,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>0.7204658004968451</v>
+        <v>0.380896978464373</v>
       </c>
       <c r="G5">
-        <v>0.108108108108108</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.810810810810811</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0.045</v>
       </c>
       <c r="K5">
-        <v>-0.0024645748987854</v>
+        <v>0.0024845585104571</v>
       </c>
       <c r="L5">
-        <v>-0.0118789142373418</v>
+        <v>-0.009084884987408601</v>
       </c>
       <c r="M5">
-        <v>0.0077759322838946</v>
+        <v>0.0130688827869938</v>
       </c>
       <c r="N5">
-        <v>-5.47683310841206</v>
+        <v>5.52124113434914</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q5">
         <v>1790680.36207</v>
@@ -876,19 +870,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
         <v>44</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>45</v>
       </c>
-      <c r="U5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" t="s">
-        <v>47</v>
-      </c>
       <c r="W5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -905,40 +899,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>0.653145783621417</v>
+        <v>0.720696561468429</v>
       </c>
       <c r="G6">
-        <v>0.275</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="H6">
-        <v>0.775</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.468</v>
+        <v>0.3625</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0.0320032117044372</v>
       </c>
       <c r="L6">
-        <v>-0.239385690676264</v>
+        <v>-0.200978968921765</v>
       </c>
       <c r="M6">
-        <v>0.07270249073124981</v>
+        <v>0.0577849077156194</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-8.828472194327491</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q6">
         <v>1790680.36207</v>
@@ -947,19 +941,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
         <v>44</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>45</v>
       </c>
-      <c r="U6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" t="s">
-        <v>47</v>
-      </c>
       <c r="W6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -976,40 +970,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>0.46040238185437</v>
+        <v>0.742961380816199</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.972972972972973</v>
+        <v>0.9761904761904761</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.85</v>
+        <v>8.865</v>
       </c>
       <c r="K7">
-        <v>-0.0128307962529271</v>
+        <v>0.110845912797359</v>
       </c>
       <c r="L7">
-        <v>-0.256839306642644</v>
+        <v>-0.106743962350374</v>
       </c>
       <c r="M7">
-        <v>0.172385257862711</v>
+        <v>0.294341510776713</v>
       </c>
       <c r="N7">
-        <v>-0.144980748620645</v>
+        <v>1.2503769069076</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q7">
         <v>1790680.36207</v>
@@ -1018,16 +1012,16 @@
         <v>5502170.80623</v>
       </c>
       <c r="S7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" t="s">
         <v>44</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>45</v>
-      </c>
-      <c r="U7" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1044,40 +1038,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>0.960825328705322</v>
+        <v>0.993254207026085</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.95</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.93</v>
+        <v>1.725</v>
       </c>
       <c r="K8">
-        <v>-0.222111486486486</v>
+        <v>-0.332632415574096</v>
       </c>
       <c r="L8">
-        <v>-0.454503985007209</v>
+        <v>-0.566299090433767</v>
       </c>
       <c r="M8">
-        <v>-0.0232102309356103</v>
+        <v>-0.105664881725288</v>
       </c>
       <c r="N8">
-        <v>-11.5083671754656</v>
+        <v>-19.2830385840056</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q8">
         <v>1790680.36207</v>
@@ -1086,19 +1080,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" t="s">
         <v>44</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>45</v>
       </c>
-      <c r="U8" t="s">
-        <v>46</v>
-      </c>
-      <c r="V8" t="s">
-        <v>47</v>
-      </c>
       <c r="W8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1115,40 +1109,40 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>0.871109258862682</v>
+        <v>0.605654258154019</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.95</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.111</v>
+        <v>0.1135</v>
       </c>
       <c r="K9">
-        <v>-0.0120101547388781</v>
+        <v>-0.0033330512203533</v>
       </c>
       <c r="L9">
-        <v>-0.0367919660534549</v>
+        <v>-0.0231186791155764</v>
       </c>
       <c r="M9">
-        <v>0.0036724956089214</v>
+        <v>0.0179371757303672</v>
       </c>
       <c r="N9">
-        <v>-10.8199592242145</v>
+        <v>-2.93660900471662</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q9">
         <v>1790680.36207</v>
@@ -1157,19 +1151,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" t="s">
         <v>44</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>45</v>
       </c>
-      <c r="U9" t="s">
-        <v>46</v>
-      </c>
-      <c r="V9" t="s">
-        <v>47</v>
-      </c>
       <c r="W9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1183,43 +1177,43 @@
         <v>10</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
       </c>
       <c r="F10">
-        <v>0.980404594736466</v>
+        <v>0.996222256176999</v>
       </c>
       <c r="G10">
-        <v>0.0416666666666667</v>
+        <v>0.0421052631578947</v>
       </c>
       <c r="H10">
-        <v>0.697916666666667</v>
+        <v>0.715789473684211</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>-1.08587837837838</v>
+        <v>-1.69162485526824</v>
       </c>
       <c r="L10">
-        <v>-2.35901211059682</v>
+        <v>-2.70823476836806</v>
       </c>
       <c r="M10">
-        <v>-0.131142235623195</v>
+        <v>-0.611471555515772</v>
       </c>
       <c r="N10">
-        <v>-5.05059710873664</v>
+        <v>-7.68920388758289</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q10">
         <v>1790680.36207</v>
@@ -1228,19 +1222,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" t="s">
         <v>44</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>45</v>
       </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>46</v>
-      </c>
-      <c r="V10" t="s">
-        <v>47</v>
-      </c>
-      <c r="W10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1257,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11">
-        <v>0.957746478873239</v>
+        <v>0.960526315789474</v>
       </c>
       <c r="H11">
-        <v>0.0704225352112676</v>
+        <v>0.06578947368421049</v>
       </c>
       <c r="I11">
         <v>3</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q11">
         <v>1790680.36207</v>
@@ -1281,19 +1275,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" t="s">
         <v>44</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>45</v>
       </c>
-      <c r="U11" t="s">
-        <v>46</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>47</v>
-      </c>
-      <c r="W11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>0.608947325486267</v>
+        <v>0.894849545217364</v>
       </c>
       <c r="G12">
-        <v>0.494736842105263</v>
+        <v>0.48936170212766</v>
       </c>
       <c r="H12">
-        <v>0.189473684210526</v>
+        <v>0.223404255319149</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1340,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q12">
         <v>1790680.36207</v>
@@ -1352,19 +1346,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" t="s">
         <v>44</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>45</v>
       </c>
-      <c r="U12" t="s">
-        <v>46</v>
-      </c>
-      <c r="V12" t="s">
-        <v>47</v>
-      </c>
       <c r="W12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,40 +1375,40 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>0.9272769983272749</v>
+        <v>0.995402059173104</v>
       </c>
       <c r="G13">
-        <v>0.1875</v>
+        <v>0.178947368421053</v>
       </c>
       <c r="H13">
-        <v>0.84375</v>
+        <v>0.852631578947368</v>
       </c>
       <c r="I13">
         <v>3</v>
       </c>
       <c r="J13">
-        <v>0.7448</v>
+        <v>0.497</v>
       </c>
       <c r="K13">
-        <v>-0.0067676299778761</v>
+        <v>-0.0204867788461538</v>
       </c>
       <c r="L13">
-        <v>-0.0210181427347957</v>
+        <v>-0.0616776498115213</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>-0.0057245029488384</v>
       </c>
       <c r="N13">
-        <v>-0.908650641497866</v>
+        <v>-4.12208829902492</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q13">
         <v>1790680.36207</v>
@@ -1423,19 +1417,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S13" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
         <v>44</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>45</v>
       </c>
-      <c r="U13" t="s">
-        <v>46</v>
-      </c>
-      <c r="V13" t="s">
-        <v>47</v>
-      </c>
       <c r="W13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,40 +1446,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14">
-        <v>0.988718054318142</v>
+        <v>0.999919193998662</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.90625</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2.31</v>
+        <v>2.22</v>
       </c>
       <c r="K14">
-        <v>-0.07629666666666669</v>
+        <v>-0.138016194331983</v>
       </c>
       <c r="L14">
-        <v>-0.140098846151439</v>
+        <v>-0.179552383714803</v>
       </c>
       <c r="M14">
-        <v>-0.024075366855642</v>
+        <v>-0.0839839281470932</v>
       </c>
       <c r="N14">
-        <v>-3.302886002886</v>
+        <v>-6.21694569062989</v>
       </c>
       <c r="O14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q14">
         <v>1790680.36207</v>
@@ -1494,19 +1488,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" t="s">
         <v>44</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>45</v>
       </c>
-      <c r="U14" t="s">
-        <v>46</v>
-      </c>
-      <c r="V14" t="s">
-        <v>47</v>
-      </c>
       <c r="W14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,40 +1517,40 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>0.55956690648495</v>
+        <v>0.8891580260679121</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.875</v>
+        <v>0.884210526315789</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1055</v>
+        <v>0.109</v>
       </c>
       <c r="K15">
-        <v>-0.000199699289229</v>
+        <v>-0.0024994297445255</v>
       </c>
       <c r="L15">
-        <v>-0.0035317177034036</v>
+        <v>-0.0056700981550587</v>
       </c>
       <c r="M15">
-        <v>0.0022309068809643</v>
+        <v>0.0007672705201078001</v>
       </c>
       <c r="N15">
-        <v>-0.189288425809561</v>
+        <v>-2.29305481149133</v>
       </c>
       <c r="O15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q15">
         <v>1790680.36207</v>
@@ -1565,19 +1559,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S15" t="s">
+        <v>42</v>
+      </c>
+      <c r="T15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" t="s">
         <v>44</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" t="s">
         <v>45</v>
       </c>
-      <c r="U15" t="s">
-        <v>46</v>
-      </c>
-      <c r="V15" t="s">
-        <v>47</v>
-      </c>
       <c r="W15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/trend_results/Lakes/LakeHorowhenuaatBuoy_d1d3f57b5b.xlsx
+++ b/trend_results/Lakes/LakeHorowhenuaatBuoy_d1d3f57b5b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Lake Horowhenua at Buoy</t>
   </si>
   <si>
+    <t>Cyanobacteria Biovolume</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>Lake</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
@@ -136,9 +142,6 @@
     <t>Likely increasing</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
     <t>Not Analysed improving</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
   </si>
   <si>
     <t>Hoki_1a</t>
+  </si>
+  <si>
+    <t>mg chl-a /m3</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -524,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,40 +621,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>0.9742379586059839</v>
+        <v>0.999740821290202</v>
       </c>
       <c r="G2">
-        <v>0.0714285714285714</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.833333333333333</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>0.0456</v>
       </c>
       <c r="K2">
-        <v>-4.81996748199202</v>
+        <v>-0.0382509082054784</v>
       </c>
       <c r="L2">
-        <v>-10.3587104024324</v>
+        <v>-0.117070969118894</v>
       </c>
       <c r="M2">
-        <v>-0.584291185909522</v>
+        <v>-0.009509227324289901</v>
       </c>
       <c r="N2">
-        <v>-30.1247967624501</v>
+        <v>-83.88357062604901</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2">
         <v>1790680.36207</v>
@@ -657,19 +663,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -686,40 +692,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>0.543980671003122</v>
+        <v>0.9742379586059839</v>
       </c>
       <c r="G3">
-        <v>0.0769230769230769</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="H3">
-        <v>0.884615384615385</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.84</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.0093414322250639</v>
+        <v>-4.81996748199202</v>
       </c>
       <c r="L3">
-        <v>-0.141225232572346</v>
+        <v>-10.3587104024324</v>
       </c>
       <c r="M3">
-        <v>0.179457739377415</v>
+        <v>-0.584291185909522</v>
       </c>
       <c r="N3">
-        <v>1.11207526488857</v>
+        <v>-30.1247967624501</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3">
         <v>1790680.36207</v>
@@ -728,19 +734,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -760,37 +766,37 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>0.8930551458943849</v>
+        <v>0.543980671003122</v>
       </c>
       <c r="G4">
-        <v>0.619047619047619</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H4">
-        <v>0.285714285714286</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0.84</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0093414322250639</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-0.141225232572346</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.179457739377415</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.11207526488857</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4">
         <v>1790680.36207</v>
@@ -799,19 +805,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -828,40 +834,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>0.380896978464373</v>
+        <v>0.8930551458943849</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="H5">
-        <v>0.904761904761905</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.045</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>0.0024845585104571</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.009084884987408601</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0130688827869938</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>5.52124113434914</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q5">
         <v>1790680.36207</v>
@@ -870,19 +876,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -899,40 +905,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>0.720696561468429</v>
+        <v>0.380896978464373</v>
       </c>
       <c r="G6">
-        <v>0.19047619047619</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.833333333333333</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3625</v>
+        <v>0.045</v>
       </c>
       <c r="K6">
-        <v>-0.0320032117044372</v>
+        <v>0.0024845585104571</v>
       </c>
       <c r="L6">
-        <v>-0.200978968921765</v>
+        <v>-0.009084884987408601</v>
       </c>
       <c r="M6">
-        <v>0.0577849077156194</v>
+        <v>0.0130688827869938</v>
       </c>
       <c r="N6">
-        <v>-8.828472194327491</v>
+        <v>5.52124113434914</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q6">
         <v>1790680.36207</v>
@@ -941,19 +947,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -970,40 +976,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>0.742961380816199</v>
+        <v>0.720696561468429</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="H7">
-        <v>0.9761904761904761</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>8.865</v>
+        <v>0.3625</v>
       </c>
       <c r="K7">
-        <v>0.110845912797359</v>
+        <v>-0.0320032117044372</v>
       </c>
       <c r="L7">
-        <v>-0.106743962350374</v>
+        <v>-0.200978968921765</v>
       </c>
       <c r="M7">
-        <v>0.294341510776713</v>
+        <v>0.0577849077156194</v>
       </c>
       <c r="N7">
-        <v>1.2503769069076</v>
+        <v>-8.828472194327491</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7">
         <v>1790680.36207</v>
@@ -1012,16 +1018,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="W7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1038,40 +1047,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>0.993254207026085</v>
+        <v>0.742961380816199</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.928571428571429</v>
+        <v>0.9761904761904761</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.725</v>
+        <v>8.865</v>
       </c>
       <c r="K8">
-        <v>-0.332632415574096</v>
+        <v>0.110845912797359</v>
       </c>
       <c r="L8">
-        <v>-0.566299090433767</v>
+        <v>-0.106743962350374</v>
       </c>
       <c r="M8">
-        <v>-0.105664881725288</v>
+        <v>0.294341510776713</v>
       </c>
       <c r="N8">
-        <v>-19.2830385840056</v>
+        <v>1.2503769069076</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q8">
         <v>1790680.36207</v>
@@ -1080,19 +1089,16 @@
         <v>5502170.80623</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s">
-        <v>45</v>
-      </c>
-      <c r="W8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1109,37 +1115,37 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>0.605654258154019</v>
+        <v>0.993254207026085</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.952380952380952</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1135</v>
+        <v>1.725</v>
       </c>
       <c r="K9">
-        <v>-0.0033330512203533</v>
+        <v>-0.332632415574096</v>
       </c>
       <c r="L9">
-        <v>-0.0231186791155764</v>
+        <v>-0.566299090433767</v>
       </c>
       <c r="M9">
-        <v>0.0179371757303672</v>
+        <v>-0.105664881725288</v>
       </c>
       <c r="N9">
-        <v>-2.93660900471662</v>
+        <v>-19.2830385840056</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
         <v>37</v>
@@ -1151,19 +1157,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1171,10 +1177,10 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1183,37 +1189,37 @@
         <v>33</v>
       </c>
       <c r="F10">
-        <v>0.996222256176999</v>
+        <v>0.605654258154019</v>
       </c>
       <c r="G10">
-        <v>0.0421052631578947</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.715789473684211</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>22</v>
+        <v>0.1135</v>
       </c>
       <c r="K10">
-        <v>-1.69162485526824</v>
+        <v>-0.0033330512203533</v>
       </c>
       <c r="L10">
-        <v>-2.70823476836806</v>
+        <v>-0.0231186791155764</v>
       </c>
       <c r="M10">
-        <v>-0.611471555515772</v>
+        <v>0.0179371757303672</v>
       </c>
       <c r="N10">
-        <v>-7.68920388758289</v>
+        <v>-2.93660900471662</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q10">
         <v>1790680.36207</v>
@@ -1222,19 +1228,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1253,20 +1259,38 @@
       <c r="E11" t="s">
         <v>34</v>
       </c>
+      <c r="F11">
+        <v>0.996222256176999</v>
+      </c>
       <c r="G11">
-        <v>0.960526315789474</v>
+        <v>0.0421052631578947</v>
       </c>
       <c r="H11">
-        <v>0.06578947368421049</v>
+        <v>0.715789473684211</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>-1.69162485526824</v>
+      </c>
+      <c r="L11">
+        <v>-2.70823476836806</v>
+      </c>
+      <c r="M11">
+        <v>-0.611471555515772</v>
+      </c>
+      <c r="N11">
+        <v>-7.68920388758289</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q11">
         <v>1790680.36207</v>
@@ -1275,19 +1299,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1304,40 +1328,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12">
-        <v>0.894849545217364</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>0.48936170212766</v>
+        <v>0.960526315789474</v>
       </c>
       <c r="H12">
-        <v>0.223404255319149</v>
+        <v>0.06578947368421049</v>
       </c>
       <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q12">
         <v>1790680.36207</v>
@@ -1346,19 +1352,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1366,46 +1372,46 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>0.894849545217364</v>
+      </c>
+      <c r="G13">
+        <v>0.48936170212766</v>
+      </c>
+      <c r="H13">
+        <v>0.223404255319149</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13">
-        <v>0.995402059173104</v>
-      </c>
-      <c r="G13">
-        <v>0.178947368421053</v>
-      </c>
-      <c r="H13">
-        <v>0.852631578947368</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
       <c r="J13">
-        <v>0.497</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>-0.0204867788461538</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>-0.0616776498115213</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>-0.0057245029488384</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>-4.12208829902492</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
         <v>40</v>
@@ -1417,19 +1423,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1437,7 +1443,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1446,40 +1452,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>0.999919193998662</v>
+        <v>0.995402059173104</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.178947368421053</v>
       </c>
       <c r="H14">
-        <v>0.8947368421052631</v>
+        <v>0.852631578947368</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>2.22</v>
+        <v>0.497</v>
       </c>
       <c r="K14">
-        <v>-0.138016194331983</v>
+        <v>-0.0204867788461538</v>
       </c>
       <c r="L14">
-        <v>-0.179552383714803</v>
+        <v>-0.0616776498115213</v>
       </c>
       <c r="M14">
-        <v>-0.0839839281470932</v>
+        <v>-0.0057245029488384</v>
       </c>
       <c r="N14">
-        <v>-6.21694569062989</v>
+        <v>-4.12208829902492</v>
       </c>
       <c r="O14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q14">
         <v>1790680.36207</v>
@@ -1488,19 +1494,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="S14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1517,40 +1523,40 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15">
-        <v>0.8891580260679121</v>
+        <v>0.999919193998662</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.884210526315789</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.109</v>
+        <v>2.22</v>
       </c>
       <c r="K15">
-        <v>-0.0024994297445255</v>
+        <v>-0.138016194331983</v>
       </c>
       <c r="L15">
-        <v>-0.0056700981550587</v>
+        <v>-0.179552383714803</v>
       </c>
       <c r="M15">
-        <v>0.0007672705201078001</v>
+        <v>-0.0839839281470932</v>
       </c>
       <c r="N15">
-        <v>-2.29305481149133</v>
+        <v>-6.21694569062989</v>
       </c>
       <c r="O15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q15">
         <v>1790680.36207</v>
@@ -1559,19 +1565,90 @@
         <v>5502170.80623</v>
       </c>
       <c r="S15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>0.8891580260679121</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.884210526315789</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.109</v>
+      </c>
+      <c r="K16">
+        <v>-0.0024994297445255</v>
+      </c>
+      <c r="L16">
+        <v>-0.0056700981550587</v>
+      </c>
+      <c r="M16">
+        <v>0.0007672705201078001</v>
+      </c>
+      <c r="N16">
+        <v>-2.29305481149133</v>
+      </c>
+      <c r="O16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16">
+        <v>1790680.36207</v>
+      </c>
+      <c r="R16">
+        <v>5502170.80623</v>
+      </c>
+      <c r="S16" t="s">
         <v>43</v>
       </c>
-      <c r="U15" t="s">
+      <c r="T16" t="s">
         <v>44</v>
       </c>
-      <c r="V15" t="s">
+      <c r="U16" t="s">
         <v>45</v>
       </c>
-      <c r="W15" t="s">
-        <v>50</v>
+      <c r="V16" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
